--- a/data/input/absenteeism_data_10.xlsx
+++ b/data/input/absenteeism_data_10.xlsx
@@ -476,185 +476,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>41753</v>
+        <v>84295</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gustavo Ribeiro</t>
+          <t>Srta. Maria Luiza Ferreira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45095</v>
       </c>
       <c r="G2" t="n">
-        <v>7634.69</v>
+        <v>6930.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61516</v>
+        <v>15832</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benjamin Moura</t>
+          <t>Diego da Mata</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>12089.98</v>
+        <v>11086.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>25295</v>
+        <v>24183</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sra. Laís Costela</t>
+          <t>Erick Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>8850.309999999999</v>
+        <v>7569.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>24293</v>
+        <v>20828</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Davi Lucas Pinto</t>
+          <t>Diego Nunes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45088</v>
       </c>
       <c r="G5" t="n">
-        <v>5626.81</v>
+        <v>8162.29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60307</v>
+        <v>31879</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alice Santos</t>
+          <t>Isis Melo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45080</v>
+        <v>45078</v>
       </c>
       <c r="G6" t="n">
-        <v>8566.139999999999</v>
+        <v>4507.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>30604</v>
+        <v>17271</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pedro Lucas Monteiro</t>
+          <t>Juliana da Cruz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45092</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>6233.53</v>
+        <v>7748.07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83836</v>
+        <v>34449</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Beatriz Ribeiro</t>
+          <t>Catarina Martins</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,60 +664,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45080</v>
       </c>
       <c r="G8" t="n">
-        <v>8560.52</v>
+        <v>10136.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>87893</v>
+        <v>12297</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Juliana Cunha</t>
+          <t>Eduardo da Luz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G9" t="n">
-        <v>5113.15</v>
+        <v>6237.05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>39973</v>
+        <v>61985</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pietro da Paz</t>
+          <t>Levi Peixoto</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -729,39 +729,39 @@
         <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45084</v>
       </c>
       <c r="G10" t="n">
-        <v>3399.69</v>
+        <v>8754.360000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>61397</v>
+        <v>29008</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Luiz Miguel Costa</t>
+          <t>Eduarda Porto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45100</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>12387.65</v>
+        <v>10233.02</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_10.xlsx
+++ b/data/input/absenteeism_data_10.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84295</v>
+        <v>53219</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Srta. Maria Luiza Ferreira</t>
+          <t>Raquel da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45095</v>
+        <v>45081</v>
       </c>
       <c r="G2" t="n">
-        <v>6930.48</v>
+        <v>2744.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15832</v>
+        <v>84122</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diego da Mata</t>
+          <t>Pietra Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45102</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>11086.96</v>
+        <v>3054.81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>24183</v>
+        <v>12798</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Erick Rocha</t>
+          <t>Dr. Lucca Farias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,216 +552,216 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>7569.97</v>
+        <v>7191.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20828</v>
+        <v>31251</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Diego Nunes</t>
+          <t>Matheus Martins</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45088</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>8162.29</v>
+        <v>9064.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>31879</v>
+        <v>22843</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Isis Melo</t>
+          <t>Isabelly Teixeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45078</v>
+        <v>45094</v>
       </c>
       <c r="G6" t="n">
-        <v>4507.06</v>
+        <v>6111.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17271</v>
+        <v>54790</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Juliana da Cruz</t>
+          <t>Maria Fernanda Novaes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G7" t="n">
-        <v>7748.07</v>
+        <v>4896.71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34449</v>
+        <v>38297</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Catarina Martins</t>
+          <t>Davi Lucca Araújo</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45080</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>10136.9</v>
+        <v>5105.07</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12297</v>
+        <v>83989</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eduardo da Luz</t>
+          <t>Bryan da Conceição</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>6237.05</v>
+        <v>2905.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>61985</v>
+        <v>23105</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Levi Peixoto</t>
+          <t>Thales da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>8754.360000000001</v>
+        <v>5454.56</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>29008</v>
+        <v>47124</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eduarda Porto</t>
+          <t>Pedro Miguel Melo</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45090</v>
       </c>
       <c r="G11" t="n">
-        <v>10233.02</v>
+        <v>9604.549999999999</v>
       </c>
     </row>
   </sheetData>
